--- a/config_sim_data/wiebull/result_all_wiebull.xlsx
+++ b/config_sim_data/wiebull/result_all_wiebull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/premjunsawang/Documents/GitHub/boostraponline_project/config_sim_data/wiebull/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A712202-4A76-DE42-AA02-AF4C110EDEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D54395-14E0-0544-BBC3-CB9BD38C8CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
   <si>
     <t>filename</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>error_range</t>
+  </si>
+  <si>
+    <t>n_learn_l</t>
+  </si>
+  <si>
+    <t>n_learn_r</t>
   </si>
   <si>
     <t>wiebullshape1n10000_re.pkl</t>
@@ -434,19 +440,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:J17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,16 +477,22 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -506,16 +515,22 @@
       <c r="J2">
         <v>1.284572587014378</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>110.4285714285714</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -538,16 +553,22 @@
       <c r="J3">
         <v>1.284572587014378</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>169.6</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>500</v>
@@ -570,176 +591,212 @@
       <c r="J4">
         <v>1.284572587014378</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>422</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>50</v>
       </c>
       <c r="E5">
-        <v>2.299461433131519E-3</v>
+        <v>2.0744134925932832E-3</v>
       </c>
       <c r="F5">
-        <v>6.95450358750535</v>
+        <v>6.9520500657643476</v>
       </c>
       <c r="G5">
-        <v>6.9522041260722176</v>
+        <v>6.9499756522717551</v>
       </c>
       <c r="H5">
-        <v>-2.2596209409412931E-3</v>
+        <v>-2.0345730004030578E-3</v>
       </c>
       <c r="I5">
-        <v>1.619085754520057</v>
+        <v>1.621539276261059</v>
       </c>
       <c r="J5">
-        <v>1.6213453754609981</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.623573849261462</v>
+      </c>
+      <c r="K5">
+        <v>287.59090909090912</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="E6">
-        <v>2.3172698633262441E-3</v>
+        <v>1.9193004518335971E-3</v>
       </c>
       <c r="F6">
-        <v>6.9486710996577159</v>
+        <v>6.9983619233922143</v>
       </c>
       <c r="G6">
-        <v>6.9463538297943899</v>
+        <v>6.9964426229403811</v>
       </c>
       <c r="H6">
-        <v>-2.2774293711360191E-3</v>
+        <v>-1.8794599596433719E-3</v>
       </c>
       <c r="I6">
-        <v>1.6249182423676909</v>
+        <v>1.5752274186331929</v>
       </c>
       <c r="J6">
-        <v>1.627195671738827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.577106878592835</v>
+      </c>
+      <c r="K6">
+        <v>424.4</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>500</v>
       </c>
       <c r="E7">
-        <v>7.5057692435403145E-4</v>
+        <v>4.6119062863708401E-4</v>
       </c>
       <c r="F7">
         <v>7.289016755011029</v>
       </c>
       <c r="G7">
-        <v>7.2882661780866753</v>
+        <v>7.288555564382392</v>
       </c>
       <c r="H7">
-        <v>-7.1073643216380616E-4</v>
+        <v>-4.2135013644685872E-4</v>
       </c>
       <c r="I7">
         <v>1.284572587014378</v>
       </c>
       <c r="J7">
-        <v>1.2852833234465411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.284993937150825</v>
+      </c>
+      <c r="K7">
+        <v>703.25</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>3000</v>
       </c>
       <c r="E8">
-        <v>-3.0527935892346922E-4</v>
+        <v>5.2555762804242867E-5</v>
       </c>
       <c r="F8">
         <v>7.289016755011029</v>
       </c>
       <c r="G8">
-        <v>7.2893220343699534</v>
+        <v>7.288964199248225</v>
       </c>
       <c r="H8">
-        <v>3.4511985111369451E-4</v>
+        <v>-1.271527061401757E-5</v>
       </c>
       <c r="I8">
         <v>1.284572587014378</v>
       </c>
       <c r="J8">
-        <v>1.2842274671632641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.284585302284992</v>
+      </c>
+      <c r="K8">
+        <v>1802</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>3000</v>
       </c>
       <c r="E9">
-        <v>3.1197694180998378E-4</v>
+        <v>3.1709889213835118E-4</v>
       </c>
       <c r="F9">
-        <v>7.0465770570378794</v>
+        <v>7.0559575500590581</v>
       </c>
       <c r="G9">
-        <v>7.0462650800960676</v>
+        <v>7.0556404511669202</v>
       </c>
       <c r="H9">
-        <v>-2.721364496197586E-4</v>
+        <v>-2.7725839994812589E-4</v>
       </c>
       <c r="I9">
-        <v>1.5270122849875289</v>
+        <v>1.5176317919663489</v>
       </c>
       <c r="J9">
-        <v>1.5272844214371479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.517909050366296</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>50</v>
@@ -748,30 +805,36 @@
         <v>0.18614858540353471</v>
       </c>
       <c r="F10">
-        <v>1.540117552225871</v>
+        <v>1.5391420299495251</v>
       </c>
       <c r="G10">
-        <v>1.353968966822336</v>
+        <v>1.352993444545991</v>
       </c>
       <c r="H10">
         <v>-7.5741540020805298E-2</v>
       </c>
       <c r="I10">
-        <v>3.3339186594042218E-2</v>
+        <v>3.4314708870387678E-2</v>
       </c>
       <c r="J10">
-        <v>0.1090807266148475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.11005624889119291</v>
+      </c>
+      <c r="K10">
+        <v>2.7</v>
+      </c>
+      <c r="L10">
+        <v>3.8571428571428572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -780,30 +843,36 @@
         <v>0.18614858540353471</v>
       </c>
       <c r="F11">
-        <v>1.5400531869116549</v>
+        <v>1.5407902189197791</v>
       </c>
       <c r="G11">
-        <v>1.35390460150812</v>
+        <v>1.354641633516245</v>
       </c>
       <c r="H11">
         <v>-7.5741540020805298E-2</v>
       </c>
       <c r="I11">
-        <v>3.3403551908258278E-2</v>
+        <v>3.2666519900133688E-2</v>
       </c>
       <c r="J11">
-        <v>0.10914509192906351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.1084080599209389</v>
+      </c>
+      <c r="K11">
+        <v>3.625</v>
+      </c>
+      <c r="L11">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>500</v>
@@ -826,16 +895,22 @@
       <c r="J12">
         <v>0.1107690277184594</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>10.8</v>
+      </c>
+      <c r="L12">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>50</v>
@@ -844,414 +919,492 @@
         <v>0.18614858540353471</v>
       </c>
       <c r="F13">
-        <v>1.497547180176626</v>
+        <v>1.4834723734983719</v>
       </c>
       <c r="G13">
-        <v>1.3113985947730911</v>
+        <v>1.2973237880948369</v>
       </c>
       <c r="H13">
         <v>-7.5741540020805298E-2</v>
       </c>
       <c r="I13">
-        <v>7.5909558643287189E-2</v>
+        <v>8.9984365321541082E-2</v>
       </c>
       <c r="J13">
-        <v>0.1516510986640924</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.1657259053423463</v>
+      </c>
+      <c r="K13">
+        <v>4.9473684210526319</v>
+      </c>
+      <c r="L13">
+        <v>6.0588235294117636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
       <c r="E14">
-        <v>0.24802912187129561</v>
+        <v>0.24373790836224421</v>
       </c>
       <c r="F14">
-        <v>1.5035227482492519</v>
+        <v>1.494980196363475</v>
       </c>
       <c r="G14">
-        <v>1.255493626377957</v>
+        <v>1.2512422880012311</v>
       </c>
       <c r="H14">
-        <v>-0.13762207648856609</v>
+        <v>-0.13333086297951471</v>
       </c>
       <c r="I14">
-        <v>6.9933990570660631E-2</v>
+        <v>7.8476542456438203E-2</v>
       </c>
       <c r="J14">
-        <v>0.20755606705922669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.21180740543595289</v>
+      </c>
+      <c r="K14">
+        <v>5.1333333333333337</v>
+      </c>
+      <c r="L14">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>500</v>
       </c>
       <c r="E15">
-        <v>0.24607345672859141</v>
+        <v>0.24340873185401901</v>
       </c>
       <c r="F15">
-        <v>1.505516448969848</v>
+        <v>1.507163257885014</v>
       </c>
       <c r="G15">
-        <v>1.2594429922412571</v>
+        <v>1.263754526030995</v>
       </c>
       <c r="H15">
-        <v>-0.13566641134586199</v>
+        <v>-0.1330016864712896</v>
       </c>
       <c r="I15">
-        <v>6.794028985006495E-2</v>
+        <v>6.6293480934899396E-2</v>
       </c>
       <c r="J15">
-        <v>0.2036067011959268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.19929516740618891</v>
+      </c>
+      <c r="K15">
+        <v>16</v>
+      </c>
+      <c r="L15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
         <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
       </c>
       <c r="D16">
         <v>3000</v>
       </c>
       <c r="E16">
-        <v>0.195488292110269</v>
+        <v>0.1949589432310522</v>
       </c>
       <c r="F16">
-        <v>1.53930651525511</v>
+        <v>1.5386230272642929</v>
       </c>
       <c r="G16">
-        <v>1.343818223144841</v>
+        <v>1.343664084033241</v>
       </c>
       <c r="H16">
-        <v>-8.5081246727539611E-2</v>
+        <v>-8.455189784832276E-2</v>
       </c>
       <c r="I16">
-        <v>3.4150223564802573E-2</v>
+        <v>3.4833711555620317E-2</v>
       </c>
       <c r="J16">
-        <v>0.119231470292342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.1193856094039429</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>3000</v>
       </c>
       <c r="E17">
-        <v>0.2005364199800207</v>
+        <v>0.19853811722704989</v>
       </c>
       <c r="F17">
-        <v>1.507792555399005</v>
+        <v>1.5098024468576161</v>
       </c>
       <c r="G17">
-        <v>1.307256135418984</v>
+        <v>1.3112643296305659</v>
       </c>
       <c r="H17">
-        <v>-9.0129374597291284E-2</v>
+        <v>-8.8131071844320535E-2</v>
       </c>
       <c r="I17">
-        <v>6.5664183420907962E-2</v>
+        <v>6.3654291962296661E-2</v>
       </c>
       <c r="J17">
-        <v>0.1557935580181993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.15178536380661711</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>50</v>
       </c>
       <c r="E18">
-        <v>-1.006712145156135E-3</v>
+        <v>-6.3166577618096098E-4</v>
       </c>
       <c r="F18">
         <v>8.6611789602556239</v>
       </c>
       <c r="G18">
-        <v>8.6621856724007795</v>
+        <v>8.6618106260318051</v>
       </c>
       <c r="H18">
-        <v>1.0162905123265449E-3</v>
+        <v>6.4124414335137159E-4</v>
       </c>
       <c r="I18">
         <v>3.8306041423088799</v>
       </c>
       <c r="J18">
-        <v>3.8295878517965551</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.82996289816553</v>
+      </c>
+      <c r="K18">
+        <v>127.3333333333333</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>100</v>
       </c>
       <c r="E19">
-        <v>-1.27972566279171E-4</v>
+        <v>-3.0750432347587581E-4</v>
       </c>
       <c r="F19">
         <v>8.6611789602556239</v>
       </c>
       <c r="G19">
-        <v>8.661306932821903</v>
+        <v>8.6614864645791005</v>
       </c>
       <c r="H19">
-        <v>1.3755093344958169E-4</v>
+        <v>3.1708269064628652E-4</v>
       </c>
       <c r="I19">
         <v>3.8306041423088799</v>
       </c>
       <c r="J19">
-        <v>3.8304665913754321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.8302870596182341</v>
+      </c>
+      <c r="K19">
+        <v>216.14285714285711</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>500</v>
       </c>
       <c r="E20">
-        <v>-5.8427743715489444E-4</v>
+        <v>-1.0902956865981349E-3</v>
       </c>
       <c r="F20">
         <v>8.6611789602556239</v>
       </c>
       <c r="G20">
-        <v>8.661763237692778</v>
+        <v>8.6622692559422223</v>
       </c>
       <c r="H20">
-        <v>5.9385580432530505E-4</v>
+        <v>1.0998740537685461E-3</v>
       </c>
       <c r="I20">
         <v>3.8306041423088799</v>
       </c>
       <c r="J20">
-        <v>3.8300102865045571</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.8295042682551119</v>
+      </c>
+      <c r="K20">
+        <v>952.8</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>50</v>
       </c>
       <c r="E21">
-        <v>5.4559010335983381E-4</v>
+        <v>1.8314666239170981E-4</v>
       </c>
       <c r="F21">
-        <v>8.5907015627027743</v>
+        <v>8.5932752497693361</v>
       </c>
       <c r="G21">
-        <v>8.5901559725994137</v>
+        <v>8.5930921031069438</v>
       </c>
       <c r="H21">
-        <v>-5.360117361894232E-4</v>
+        <v>-1.735682952212991E-4</v>
       </c>
       <c r="I21">
-        <v>3.90108153986173</v>
+        <v>3.8985078527951682</v>
       </c>
       <c r="J21">
-        <v>3.901617551597921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.8986814210903908</v>
+      </c>
+      <c r="K21">
+        <v>359.44</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>100</v>
       </c>
       <c r="E22">
-        <v>6.5077383289662309E-4</v>
+        <v>5.3672907507454782E-4</v>
       </c>
       <c r="F22">
-        <v>8.5905091350465934</v>
+        <v>8.5901700251459765</v>
       </c>
       <c r="G22">
-        <v>8.5898583612136967</v>
+        <v>8.5896332960709021</v>
       </c>
       <c r="H22">
-        <v>-6.4119546572621248E-4</v>
+        <v>-5.2715070790413721E-4</v>
       </c>
       <c r="I22">
-        <v>3.9012739675179109</v>
+        <v>3.9016130774185278</v>
       </c>
       <c r="J22">
-        <v>3.9019151629836379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.902140228126433</v>
+      </c>
+      <c r="K22">
+        <v>603.4</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>500</v>
       </c>
       <c r="E23">
-        <v>-3.6806314440215517E-5</v>
+        <v>-2.4253802867681899E-4</v>
       </c>
       <c r="F23">
-        <v>8.5985164219958214</v>
+        <v>8.6020642760794939</v>
       </c>
       <c r="G23">
-        <v>8.5985532283102621</v>
+        <v>8.6023068141081716</v>
       </c>
       <c r="H23">
-        <v>4.6384681610626192E-5</v>
+        <v>2.5211639584722971E-4</v>
       </c>
       <c r="I23">
-        <v>3.8932666805686829</v>
+        <v>3.88971882648501</v>
       </c>
       <c r="J23">
-        <v>3.893220295887073</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.8894667100891631</v>
+      </c>
+      <c r="K23">
+        <v>952.2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>15000</v>
       </c>
       <c r="E24">
-        <v>-7.601066350436716E-4</v>
+        <v>-7.1956746984142472E-4</v>
       </c>
       <c r="F24">
         <v>8.6611789602556239</v>
       </c>
       <c r="G24">
-        <v>8.6619390668906675</v>
+        <v>8.6618985277254659</v>
       </c>
       <c r="H24">
-        <v>7.696850022140822E-4</v>
+        <v>7.2914583701183533E-4</v>
       </c>
       <c r="I24">
         <v>3.8306041423088799</v>
       </c>
       <c r="J24">
-        <v>3.8298344573066672</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.8298749964718688</v>
+      </c>
+      <c r="K24">
+        <v>9776</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
         <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
       </c>
       <c r="D25">
         <v>15000</v>
       </c>
       <c r="E25">
-        <v>5.0103359254010537E-5</v>
+        <v>4.5698608047463618E-5</v>
       </c>
       <c r="F25">
-        <v>8.5762945880384756</v>
+        <v>8.581573363919718</v>
       </c>
       <c r="G25">
-        <v>8.5762444846792221</v>
+        <v>8.5815276653116701</v>
       </c>
       <c r="H25">
-        <v>-4.0524992083599889E-5</v>
+        <v>-3.6120240877052957E-5</v>
       </c>
       <c r="I25">
-        <v>3.9154885145260292</v>
+        <v>3.9102097386447858</v>
       </c>
       <c r="J25">
-        <v>3.915529039518113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.910245858885665</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>50</v>
@@ -1274,16 +1427,22 @@
       <c r="J26">
         <v>0.1324653138887186</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="L26">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -1306,16 +1465,22 @@
       <c r="J27">
         <v>0.1324653138887186</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>4.5</v>
+      </c>
+      <c r="L27">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>500</v>
@@ -1338,165 +1503,201 @@
       <c r="J28">
         <v>0.1324653138887186</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>11.125</v>
+      </c>
+      <c r="L28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>50</v>
       </c>
       <c r="E29">
-        <v>0.2049855142443518</v>
+        <v>0.20715038022763249</v>
       </c>
       <c r="F29">
-        <v>1.5004518451481541</v>
+        <v>1.4921469035257351</v>
       </c>
       <c r="G29">
-        <v>1.2954663309038019</v>
+        <v>1.2849965232981031</v>
       </c>
       <c r="H29">
-        <v>-6.6350170706175104E-2</v>
+        <v>-6.8515036689455855E-2</v>
       </c>
       <c r="I29">
-        <v>0.14126569657309099</v>
+        <v>0.14957063819550981</v>
       </c>
       <c r="J29">
-        <v>0.20761586727926609</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.21808567488496561</v>
+      </c>
+      <c r="K29">
+        <v>7.115384615384615</v>
+      </c>
+      <c r="L29">
+        <v>8.045454545454545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>100</v>
       </c>
       <c r="E30">
-        <v>0.20346509961787079</v>
+        <v>0.20632914612205619</v>
       </c>
       <c r="F30">
-        <v>1.4988664491584289</v>
+        <v>1.4977193338156241</v>
       </c>
       <c r="G30">
-        <v>1.2954013495405581</v>
+        <v>1.2913901876935681</v>
       </c>
       <c r="H30">
-        <v>-6.4829756079694073E-2</v>
+        <v>-6.769380258387947E-2</v>
       </c>
       <c r="I30">
-        <v>0.14285109256281611</v>
+        <v>0.14399820790562101</v>
       </c>
       <c r="J30">
-        <v>0.20768084864251041</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.21169201048950059</v>
+      </c>
+      <c r="K30">
+        <v>10.36</v>
+      </c>
+      <c r="L30">
+        <v>12.46666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D31">
         <v>500</v>
       </c>
       <c r="E31">
-        <v>0.19422086723789889</v>
+        <v>0.19614317621504271</v>
       </c>
       <c r="F31">
-        <v>1.504618972865841</v>
+        <v>1.506372198035564</v>
       </c>
       <c r="G31">
-        <v>1.3103981056279419</v>
+        <v>1.310229021820521</v>
       </c>
       <c r="H31">
-        <v>-5.5585523699722222E-2</v>
+        <v>-5.7507832676866037E-2</v>
       </c>
       <c r="I31">
-        <v>0.13709856885540411</v>
+        <v>0.1353453436856806</v>
       </c>
       <c r="J31">
-        <v>0.19268409255512631</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.1928531763625467</v>
+      </c>
+      <c r="K31">
+        <v>18.928571428571431</v>
+      </c>
+      <c r="L31">
+        <v>23.444444444444439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>15000</v>
       </c>
       <c r="E32">
-        <v>0.17566831210443351</v>
+        <v>0.1756690595763776</v>
       </c>
       <c r="F32">
         <v>1.5260759452361099</v>
       </c>
       <c r="G32">
-        <v>1.350407633131677</v>
+        <v>1.3504068856597331</v>
       </c>
       <c r="H32">
-        <v>-3.7032968566256819E-2</v>
+        <v>-3.7033716038200937E-2</v>
       </c>
       <c r="I32">
         <v>0.1156415964851345</v>
       </c>
       <c r="J32">
-        <v>0.1526745650513914</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.15267531252333549</v>
+      </c>
+      <c r="K32">
+        <v>40</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <v>15000</v>
       </c>
       <c r="E33">
-        <v>0.16702866366164679</v>
+        <v>0.16682471848734151</v>
       </c>
       <c r="F33">
-        <v>1.5216568391405669</v>
+        <v>1.5208573210278129</v>
       </c>
       <c r="G33">
-        <v>1.35462817547892</v>
+        <v>1.354032602540471</v>
       </c>
       <c r="H33">
-        <v>-2.839332012347015E-2</v>
+        <v>-2.8189374949164792E-2</v>
       </c>
       <c r="I33">
-        <v>0.12006070258067771</v>
+        <v>0.1208602206934319</v>
       </c>
       <c r="J33">
-        <v>0.14845402270414801</v>
+        <v>0.14904959564259679</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config_sim_data/wiebull/result_all_wiebull.xlsx
+++ b/config_sim_data/wiebull/result_all_wiebull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/premjunsawang/Documents/GitHub/boostraponline_project/config_sim_data/wiebull/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D54395-14E0-0544-BBC3-CB9BD38C8CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A312A1-A259-CF46-A1DB-B67FA1D371F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,11 +133,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,11 +450,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -456,31 +469,31 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -494,31 +507,31 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>50</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>3.9840492190225301E-5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>7.289016755011029</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>7.2889769145188383</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
         <v>1.284572587014378</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>1.284572587014378</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>110.4285714285714</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -532,31 +545,31 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>3.9840492190225301E-5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>7.289016755011029</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>7.2889769145188383</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
         <v>1.284572587014378</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>1.284572587014378</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>169.6</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -570,31 +583,31 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>500</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>3.9840492190225301E-5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>7.289016755011029</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>7.2889769145188383</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
         <v>1.284572587014378</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>1.284572587014378</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>422</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -608,31 +621,31 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>50</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>2.0744134925932832E-3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>6.9520500657643476</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>6.9499756522717551</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>-2.0345730004030578E-3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>1.621539276261059</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>1.623573849261462</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>287.59090909090912</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -646,31 +659,31 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>1.9193004518335971E-3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>6.9983619233922143</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>6.9964426229403811</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>-1.8794599596433719E-3</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>1.5752274186331929</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>1.577106878592835</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>424.4</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>1</v>
       </c>
     </row>
@@ -684,31 +697,31 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>500</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>4.6119062863708401E-4</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>7.289016755011029</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>7.288555564382392</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>-4.2135013644685872E-4</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>1.284572587014378</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>1.284993937150825</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>703.25</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -722,31 +735,31 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>3000</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>5.2555762804242867E-5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>7.289016755011029</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>7.288964199248225</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>-1.271527061401757E-5</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>1.284572587014378</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>1.284585302284992</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>1802</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -760,31 +773,31 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>3000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>3.1709889213835118E-4</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>7.0559575500590581</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>7.0556404511669202</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>-2.7725839994812589E-4</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>1.5176317919663489</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>1.517909050366296</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -798,31 +811,31 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>50</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.18614858540353471</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>1.5391420299495251</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>1.352993444545991</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>-7.5741540020805298E-2</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>3.4314708870387678E-2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>0.11005624889119291</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>2.7</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>3.8571428571428572</v>
       </c>
     </row>
@@ -836,31 +849,31 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>100</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.18614858540353471</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>1.5407902189197791</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>1.354641633516245</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>-7.5741540020805298E-2</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>3.2666519900133688E-2</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>0.1084080599209389</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>3.625</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>4.166666666666667</v>
       </c>
     </row>
@@ -874,31 +887,31 @@
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>500</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.18614858540353471</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>1.538429251122259</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>1.3522806657187241</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>-7.5741540020805298E-2</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>3.502748769765418E-2</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>0.1107690277184594</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>10.8</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>18.5</v>
       </c>
     </row>
@@ -912,31 +925,31 @@
       <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>50</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0.18614858540353471</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>1.4834723734983719</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>1.2973237880948369</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>-7.5741540020805298E-2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>8.9984365321541082E-2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>0.1657259053423463</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>4.9473684210526319</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>6.0588235294117636</v>
       </c>
     </row>
@@ -950,31 +963,31 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>100</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>0.24373790836224421</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>1.494980196363475</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>1.2512422880012311</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>-0.13333086297951471</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>7.8476542456438203E-2</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>0.21180740543595289</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>5.1333333333333337</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -988,31 +1001,31 @@
       <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>500</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>0.24340873185401901</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>1.507163257885014</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>1.263754526030995</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>-0.1330016864712896</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>6.6293480934899396E-2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>0.19929516740618891</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>16</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>17</v>
       </c>
     </row>
@@ -1026,31 +1039,31 @@
       <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>3000</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>0.1949589432310522</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>1.5386230272642929</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>1.343664084033241</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>-8.455189784832276E-2</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>3.4833711555620317E-2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>0.1193856094039429</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>11</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>12</v>
       </c>
     </row>
@@ -1064,31 +1077,31 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>3000</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>0.19853811722704989</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>1.5098024468576161</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>1.3112643296305659</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>-8.8131071844320535E-2</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>6.3654291962296661E-2</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>0.15178536380661711</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1102,31 +1115,31 @@
       <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>50</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>-6.3166577618096098E-4</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>8.6611789602556239</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>8.6618106260318051</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>6.4124414335137159E-4</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>3.8306041423088799</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>3.82996289816553</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>127.3333333333333</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1140,31 +1153,31 @@
       <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>100</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>-3.0750432347587581E-4</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>8.6611789602556239</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>8.6614864645791005</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>3.1708269064628652E-4</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>3.8306041423088799</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>3.8302870596182341</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>216.14285714285711</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1178,31 +1191,31 @@
       <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>500</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>-1.0902956865981349E-3</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>8.6611789602556239</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>8.6622692559422223</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>1.0998740537685461E-3</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>3.8306041423088799</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>3.8295042682551119</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>952.8</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1216,31 +1229,31 @@
       <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>50</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>1.8314666239170981E-4</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>8.5932752497693361</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>8.5930921031069438</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>-1.735682952212991E-4</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>3.8985078527951682</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>3.8986814210903908</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>359.44</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1254,31 +1267,31 @@
       <c r="C22" t="s">
         <v>13</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>100</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>5.3672907507454782E-4</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>8.5901700251459765</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>8.5896332960709021</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>-5.2715070790413721E-4</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>3.9016130774185278</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>3.902140228126433</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>603.4</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1292,31 +1305,31 @@
       <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>500</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>-2.4253802867681899E-4</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>8.6020642760794939</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>8.6023068141081716</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>2.5211639584722971E-4</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>3.88971882648501</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>3.8894667100891631</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <v>952.2</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1330,31 +1343,31 @@
       <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>15000</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>-7.1956746984142472E-4</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>8.6611789602556239</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>8.6618985277254659</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>7.2914583701183533E-4</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>3.8306041423088799</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>3.8298749964718688</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>9776</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1368,31 +1381,31 @@
       <c r="C25" t="s">
         <v>15</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>15000</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>4.5698608047463618E-5</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>8.581573363919718</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>8.5815276653116701</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>-3.6120240877052957E-5</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>3.9102097386447858</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>3.910245858885665</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1406,31 +1419,31 @@
       <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>50</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>0.15545906094176071</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>1.5260759452361099</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>1.37061688429435</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>-1.6823717403583991E-2</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>0.1156415964851345</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>0.1324653138887186</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>2.666666666666667</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>3.333333333333333</v>
       </c>
     </row>
@@ -1444,31 +1457,31 @@
       <c r="C27" t="s">
         <v>12</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>100</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>0.15545906094176071</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>1.5260759452361099</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>1.37061688429435</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>-1.6823717403583991E-2</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>0.1156415964851345</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>0.1324653138887186</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>4.5</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>7.4</v>
       </c>
     </row>
@@ -1482,31 +1495,31 @@
       <c r="C28" t="s">
         <v>12</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>500</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>0.15545906094176071</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>1.5260759452361099</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>1.37061688429435</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>-1.6823717403583991E-2</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>0.1156415964851345</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>0.1324653138887186</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>11.125</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>16</v>
       </c>
     </row>
@@ -1520,31 +1533,31 @@
       <c r="C29" t="s">
         <v>13</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>50</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>0.20715038022763249</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>1.4921469035257351</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>1.2849965232981031</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>-6.8515036689455855E-2</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>0.14957063819550981</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>0.21808567488496561</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>7.115384615384615</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="3">
         <v>8.045454545454545</v>
       </c>
     </row>
@@ -1558,31 +1571,31 @@
       <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>100</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>0.20632914612205619</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>1.4977193338156241</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>1.2913901876935681</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>-6.769380258387947E-2</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>0.14399820790562101</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>0.21169201048950059</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <v>10.36</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>12.46666666666667</v>
       </c>
     </row>
@@ -1596,31 +1609,31 @@
       <c r="C31" t="s">
         <v>13</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>500</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>0.19614317621504271</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>1.506372198035564</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>1.310229021820521</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>-5.7507832676866037E-2</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>0.1353453436856806</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>0.1928531763625467</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <v>18.928571428571431</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>23.444444444444439</v>
       </c>
     </row>
@@ -1634,31 +1647,31 @@
       <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <v>15000</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>0.1756690595763776</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>1.5260759452361099</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>1.3504068856597331</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>-3.7033716038200937E-2</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>0.1156415964851345</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>0.15267531252333549</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>40</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1672,31 +1685,31 @@
       <c r="C33" t="s">
         <v>15</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <v>15000</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>0.16682471848734151</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>1.5208573210278129</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>1.354032602540471</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>-2.8189374949164792E-2</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>0.1208602206934319</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>0.14904959564259679</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>0</v>
       </c>
     </row>
